--- a/files/olx_data.xlsx
+++ b/files/olx_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Demo"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>username</t>
   </si>
@@ -24,10 +24,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>twiddly.trumps.0v@icloud.com</t>
-  </si>
-  <si>
-    <t>%c6H!%kgm19^6@2!@V$n3F5#GH$TAO</t>
+    <t/>
   </si>
   <si>
     <t>Title</t>
@@ -246,9 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -579,153 +579,153 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="54.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="49.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="21.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="29.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="54.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="49.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="29.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="3" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="3" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="30.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="4090.5">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="3">
+        <v>56</v>
+      </c>
+      <c r="C2" s="4">
         <v>10990</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>140</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="4">
+        <v>188000</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3">
-        <v>188000</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L2" s="3">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="T2" s="4">
         <v>753904764</v>
       </c>
     </row>
@@ -745,149 +745,149 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="2" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="2" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="2" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="2" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="3" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="3" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="1319.25">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4">
+        <v>10990</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3">
-        <v>10990</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>140</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="4">
+        <v>188000</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3">
-        <v>188000</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="L2" s="4">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3">
-        <v>2015</v>
-      </c>
-      <c r="L2" s="3">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="T2" s="4">
         <v>753904764</v>
       </c>
     </row>
@@ -903,12 +903,12 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="37.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="37.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -920,11 +920,11 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
